--- a/data/CED_focus_Sim_Gaussian_0.01.xlsx
+++ b/data/CED_focus_Sim_Gaussian_0.01.xlsx
@@ -500,37 +500,37 @@
         <v>0.5800000000000005</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4897938150056539</v>
+        <v>0.516364638233713</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1696431767459529</v>
+        <v>0.1852054016283594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1016516179270934</v>
+        <v>0.1188084591456268</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06970215088193685</v>
+        <v>0.08809555203574457</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05807837001302796</v>
+        <v>0.07040295059639676</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04455100808303093</v>
+        <v>0.05862341213308733</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04457062032754386</v>
+        <v>0.05001112374497394</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0254561044520056</v>
+        <v>0.04335183426440866</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03149604952414085</v>
+        <v>0.03796197208606431</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02933224674919443</v>
+        <v>0.03373034543788731</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03000353132962251</v>
+        <v>0.03025997510907662</v>
       </c>
     </row>
     <row r="3">
@@ -538,37 +538,37 @@
         <v>0.730754208939027</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1928460356298647</v>
+        <v>0.1948289622677543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1444874753886414</v>
+        <v>0.1719222017804333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1103742982186226</v>
+        <v>0.1256810218991107</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08822485753759203</v>
+        <v>0.09960695979092422</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0623666419213146</v>
+        <v>0.08364051667504424</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05824377896956103</v>
+        <v>0.07280137061125416</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03962986654224034</v>
+        <v>0.0648029996535453</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04895299139512003</v>
+        <v>0.05854292798918889</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03991918649107795</v>
+        <v>0.05339025357248971</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03041928264970405</v>
+        <v>0.04928503536311957</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03974756435916878</v>
+        <v>0.04585227695670725</v>
       </c>
     </row>
     <row r="4">
@@ -576,37 +576,37 @@
         <v>0.8365047507782974</v>
       </c>
       <c r="B4" t="n">
-        <v>0.169809607870485</v>
+        <v>0.1654140272599602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1589175451681453</v>
+        <v>0.1815566265349877</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1215713319813942</v>
+        <v>0.1588195468507153</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1067446329093787</v>
+        <v>0.1415861916334119</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1035614942502503</v>
+        <v>0.1288777284260038</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1020158320700696</v>
+        <v>0.1191026551187092</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08985143413513919</v>
+        <v>0.1112956813348578</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08052436055043857</v>
+        <v>0.1048396865243938</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0935055856098457</v>
+        <v>0.0993236360226734</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08242218545487333</v>
+        <v>0.09468800085220215</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08428158353914919</v>
+        <v>0.09066288341056628</v>
       </c>
     </row>
     <row r="5">
@@ -614,37 +614,37 @@
         <v>0.9206926101415563</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09752926654589515</v>
+        <v>0.09563389520078631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1400150565334025</v>
+        <v>0.1467785323498897</v>
       </c>
       <c r="D5" t="n">
-        <v>0.123456216476293</v>
+        <v>0.1571213796190668</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1348913465849275</v>
+        <v>0.1564833182989991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1249290982058768</v>
+        <v>0.1523320270411103</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1244511464102065</v>
+        <v>0.1474394271713618</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1171988093149211</v>
+        <v>0.1426169329467474</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1187164035563598</v>
+        <v>0.138076134900202</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1031312510443097</v>
+        <v>0.1338835283660403</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1124513395262883</v>
+        <v>0.1300589583029183</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1048409800514798</v>
+        <v>0.1265718613580846</v>
       </c>
     </row>
     <row r="6">
@@ -652,37 +652,37 @@
         <v>0.9917860490724849</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03261114474439998</v>
+        <v>0.02597681856347882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03779504045897147</v>
+        <v>0.04882453772034091</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06457142020756283</v>
+        <v>0.07154313933477727</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07361571434376288</v>
+        <v>0.0906809484558961</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08796068010969646</v>
+        <v>0.1038574330262574</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08777062710919536</v>
+        <v>0.1119630750039944</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08876492172203876</v>
+        <v>0.1166898137840684</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1092705599838187</v>
+        <v>0.119277649641478</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09096771159610273</v>
+        <v>0.1204921241725229</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1120775390032199</v>
+        <v>0.1205587238588858</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1092004033564381</v>
+        <v>0.1199035434928357</v>
       </c>
     </row>
     <row r="7">
@@ -690,37 +690,37 @@
         <v>1.053929943842642</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.001770978033502794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00396119879621059</v>
+        <v>0.003945786430895459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02131077822038998</v>
+        <v>0.007441287791339937</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0134016378341196</v>
+        <v>0.01406150594930414</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01615025319543367</v>
+        <v>0.02381589468146702</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02458757395803347</v>
+        <v>0.0351409462438979</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04241430812156428</v>
+        <v>0.04681851887457859</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03854759530713412</v>
+        <v>0.05816800549055734</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04781796943281057</v>
+        <v>0.06873034891228375</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07055273125971166</v>
+        <v>0.07829176175326853</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0820730826013376</v>
+        <v>0.08686809729590131</v>
       </c>
     </row>
     <row r="8">
@@ -728,37 +728,37 @@
         <v>1.160000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01741013020370112</v>
+        <v>1.068044080460094e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5.064012154205384e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01107972701593395</v>
+        <v>0.0001090788310239986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01071835047293776</v>
+        <v>0.0002615328373550179</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001945604911484656</v>
+        <v>0.0006395953470087299</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.001387355455658469</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00141778407907564</v>
+        <v>0.002600385853743296</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.004375792289306677</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01469262272603659</v>
+        <v>0.006819231835448108</v>
       </c>
       <c r="K8" t="n">
-        <v>0.009176048517607014</v>
+        <v>0.00989333869472569</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.01351222839896367</v>
       </c>
     </row>
     <row r="9">
@@ -769,34 +769,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.56627822327974e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.678310171543006e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>7.977225759683787e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.097325947235478e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5.645419377218531e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.370009252882198e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007436556837099933</v>
+        <v>2.940230086841739e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004477776399628076</v>
+        <v>5.707366126727501e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.0001031625366383992</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001572597742656035</v>
+        <v>0.0001760605710882128</v>
       </c>
     </row>
     <row r="10">
@@ -807,34 +807,34 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.633617096323193e-10</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4.807139491488893e-10</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01115150306991172</v>
+        <v>8.672619871245527e-10</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01487029186580143</v>
+        <v>1.572821698150104e-09</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00798190066490093</v>
+        <v>3.545209127115745e-09</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007280318663054153</v>
+        <v>9.128348259972356e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003611852038262607</v>
+        <v>2.268475236769136e-08</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>5.252911082665839e-08</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01035666376611833</v>
+        <v>1.143546519294176e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003035068379571365</v>
+        <v>2.289973273808414e-07</v>
       </c>
     </row>
     <row r="11">
@@ -845,34 +845,34 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001925321508000027</v>
+        <v>5.828677730110776e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.364712443802088e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4.680510397727525e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003685149338779895</v>
+        <v>7.256659151499103e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00811760291191327</v>
+        <v>1.064977168482617e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01315465100070587</v>
+        <v>1.725093039432197e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01160712621483495</v>
+        <v>3.221420449163589e-12</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7.022536857979506e-12</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.683416576536449e-11</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03578234673483308</v>
+        <v>3.847947422748042e-11</v>
       </c>
     </row>
     <row r="12">
@@ -883,34 +883,34 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03402914581381281</v>
+        <v>0.05037400129946318</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04141195255279128</v>
+        <v>0.04034267433750021</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02620199546784723</v>
+        <v>0.02993013855789064</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02415338061521741</v>
+        <v>0.02241195159471512</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01092303930693037</v>
+        <v>0.01715398658423914</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02810498494524437</v>
+        <v>0.01340206863336162</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001338034893889527</v>
+        <v>0.01062766237460377</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005216029949029655</v>
+        <v>0.008487255435474531</v>
       </c>
       <c r="K12" t="n">
-        <v>0.007438697259025494</v>
+        <v>0.006936027638838701</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008176396439470381</v>
+        <v>0.005755384950720657</v>
       </c>
     </row>
     <row r="13">
@@ -921,34 +921,34 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04313233352905359</v>
+        <v>0.05471172210786598</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04647041943521384</v>
+        <v>0.05480193634630503</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03233000158924414</v>
+        <v>0.04792999565924439</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03841799764653936</v>
+        <v>0.04095741739765096</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02105316525880922</v>
+        <v>0.03506502741983736</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03888605927798375</v>
+        <v>0.03027907282691344</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03856630128241079</v>
+        <v>0.02635594165074284</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01869384719242758</v>
+        <v>0.02308274178829818</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01524304837349155</v>
+        <v>0.02042607471318732</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003571907311156357</v>
+        <v>0.01821250424762854</v>
       </c>
     </row>
     <row r="14">
@@ -959,34 +959,34 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01892187529771154</v>
+        <v>0.03740045984109312</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04439527387293189</v>
+        <v>0.04718936413994537</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02388388085352993</v>
+        <v>0.04736534973288174</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03502229186212753</v>
+        <v>0.04494856684001362</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0383507999203539</v>
+        <v>0.04203703550331709</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02449579095160416</v>
+        <v>0.03919190379166595</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01814954531568045</v>
+        <v>0.03657171566714412</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05727467725460184</v>
+        <v>0.03420708340623891</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0433074573447504</v>
+        <v>0.0321021363869317</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03219124601853966</v>
+        <v>0.03021824062596827</v>
       </c>
     </row>
     <row r="15">
@@ -997,34 +997,34 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002083593247601543</v>
+        <v>0.01048631884329868</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005134064482122627</v>
+        <v>0.01597092364748699</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006257722454977421</v>
+        <v>0.01823832689027474</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0291531468825256</v>
+        <v>0.01889775679005855</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02004489442430743</v>
+        <v>0.01887050623321371</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01430188963608542</v>
+        <v>0.01857726293023376</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02123720503549136</v>
+        <v>0.018179213001272</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008131408557347557</v>
+        <v>0.01774774168865982</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00405651914918603</v>
+        <v>0.01729420825874229</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01709120999636336</v>
+        <v>0.01685457826387705</v>
       </c>
     </row>
     <row r="16">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.0008719519393399187</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.001573582863100397</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005853249533825705</v>
+        <v>0.001995844224678349</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01289085522533424</v>
+        <v>0.002229323260319632</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001348076048948149</v>
+        <v>0.002354053740753478</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006057407857769216</v>
+        <v>0.002417434496266421</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009582062363711194</v>
+        <v>0.002446548268856541</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.002458940735864622</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.002457516487880824</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.002448090773030649</v>
       </c>
     </row>
     <row r="17">
@@ -1073,34 +1073,34 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.612042551312835e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3.776726990385377e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5.48726396051557e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.705075970214286e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.009192162590592733</v>
+        <v>7.560056309036926e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.166364642483453e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0004912585145279166</v>
+        <v>8.605100666701372e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005510147092119459</v>
+        <v>8.932178904813492e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001214686053202421</v>
+        <v>9.158261488394785e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01217612472029488</v>
+        <v>9.320212564680266e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1111,34 +1111,34 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>7.637207325182889e-08</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01010641580141518</v>
+        <v>2.410529645401366e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01700278112635857</v>
+        <v>4.055853299625131e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5.442605154630463e-07</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004782565128180065</v>
+        <v>6.56191455399563e-07</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001358608310469922</v>
+        <v>7.460717631317848e-07</v>
       </c>
       <c r="I18" t="n">
-        <v>0.008499886341939619</v>
+        <v>8.189320950425516e-07</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>8.790351227043139e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01190956254126883</v>
+        <v>9.268649322859217e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003441582730286503</v>
+        <v>9.660140100105834e-07</v>
       </c>
     </row>
     <row r="19">
@@ -1149,34 +1149,34 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00353005808995041</v>
+        <v>1.049677130329652e-10</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4.556749162690171e-10</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003680358177311922</v>
+        <v>8.941739299806492e-10</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.32105790780941e-09</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01595158456999431</v>
+        <v>1.704662633568152e-09</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.040606884698267e-09</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00483764028545491</v>
+        <v>2.333341327429554e-09</v>
       </c>
       <c r="J19" t="n">
-        <v>0.009082548989138272</v>
+        <v>2.589934777178259e-09</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.808097064116576e-09</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.996914092414178e-09</v>
       </c>
     </row>
     <row r="20">
@@ -1187,34 +1187,34 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002376850758450799</v>
+        <v>4.617002683411485e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.782850186447542e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.388343372132992e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01050264338220322</v>
+        <v>1.039977904976542e-12</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003053859191203655</v>
+        <v>1.436512569111625e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.810427882719057e-12</v>
       </c>
       <c r="I20" t="n">
-        <v>0.004086839514204516</v>
+        <v>2.156206209394524e-12</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.474519614188054e-12</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001077752306379567</v>
+        <v>2.75842295435794e-12</v>
       </c>
       <c r="L20" t="n">
-        <v>0.006263052875060383</v>
+        <v>3.014049274081029e-12</v>
       </c>
     </row>
     <row r="21">
@@ -1225,34 +1225,34 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04065351679754717</v>
+        <v>0.03684531940073011</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02847814622832722</v>
+        <v>0.04602467186386544</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03018467562674592</v>
+        <v>0.04460434847603906</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0286090117811037</v>
+        <v>0.04027970899917106</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03251752553733506</v>
+        <v>0.03564243802926765</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02012451973834295</v>
+        <v>0.03142962927101063</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02892635903059578</v>
+        <v>0.02774225077136945</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0217862353620406</v>
+        <v>0.02454838852592957</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01631330751513768</v>
+        <v>0.021832754899679</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01287720674668142</v>
+        <v>0.01950678618428279</v>
       </c>
     </row>
     <row r="22">
@@ -1263,34 +1263,34 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02067477306591253</v>
+        <v>0.02391680226584338</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01852525415143673</v>
+        <v>0.03906697411536665</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03555211011348199</v>
+        <v>0.04445886978949539</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04299088783809083</v>
+        <v>0.04534501442132167</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05457611758561749</v>
+        <v>0.04430704246011269</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04299805809685487</v>
+        <v>0.04247320116418091</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02992916885088808</v>
+        <v>0.04036794277620456</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04933607179520219</v>
+        <v>0.03823599176330644</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03650287354873574</v>
+        <v>0.03614333795185262</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02872343989336287</v>
+        <v>0.03415946649814074</v>
       </c>
     </row>
     <row r="23">
@@ -1301,34 +1301,34 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001362161229849499</v>
+        <v>0.006457479201681906</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02137520616003128</v>
+        <v>0.01303304756321103</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02081793046399024</v>
+        <v>0.01725033079419182</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01260776126015211</v>
+        <v>0.01954404727948071</v>
       </c>
       <c r="G23" t="n">
-        <v>0.009208862238723692</v>
+        <v>0.02070317881260215</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009641011248703915</v>
+        <v>0.02122850068669104</v>
       </c>
       <c r="I23" t="n">
-        <v>0.006947755003795077</v>
+        <v>0.02139072146841871</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0168818611965419</v>
+        <v>0.0213450288174725</v>
       </c>
       <c r="K23" t="n">
-        <v>0.018913368417876</v>
+        <v>0.02112076014195774</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01799403110360992</v>
+        <v>0.02080911660898803</v>
       </c>
     </row>
     <row r="24">
@@ -1339,34 +1339,34 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001536157848347015</v>
+        <v>0.0005311693792117942</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.001301490485762642</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004392327748954081</v>
+        <v>0.001939556892032081</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.002392145422248647</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01405043507806428</v>
+        <v>0.002697401186119726</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01577296627767184</v>
+        <v>0.002899496211460621</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01246943694504328</v>
+        <v>0.003032367434597533</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.003120977355822618</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.00317628509757494</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.003209833658763012</v>
       </c>
     </row>
     <row r="25">
@@ -1377,34 +1377,34 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00489645953782544</v>
+        <v>1.049961913488801e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002497205763364179</v>
+        <v>3.434757516378947e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002983106939399277</v>
+        <v>5.936039910407555e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>8.068181863706869e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001450120714238608</v>
+        <v>9.761649280252913e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.0001107513648317315</v>
       </c>
       <c r="I25" t="n">
-        <v>0.006499758829675943</v>
+        <v>0.0001209222499296782</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01180966686157293</v>
+        <v>0.0001288690312093513</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.0001347814171378963</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.0001392676913980912</v>
       </c>
     </row>
     <row r="26">
@@ -1415,34 +1415,34 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>5.512271409007644e-08</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.496655885672714e-07</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01221644108509381</v>
+        <v>5.057327819048938e-07</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004599353231928982</v>
+        <v>7.60069221616215e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.878726455072083e-07</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.183755796668103e-06</v>
       </c>
       <c r="I26" t="n">
-        <v>0.007629271744616009</v>
+        <v>1.349872904053915e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.490616797212143e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001706389235597788</v>
+        <v>1.60619988575038e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001618861815870389</v>
+        <v>1.702333749846501e-06</v>
       </c>
     </row>
     <row r="27">
@@ -1453,34 +1453,34 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01509359848368061</v>
+        <v>8.551738086106651e-11</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>5.457856553851192e-10</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.302340313644889e-09</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0003998971710233784</v>
+        <v>2.166153501605472e-09</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001278745361642882</v>
+        <v>3.023638096973178e-09</v>
       </c>
       <c r="H27" t="n">
-        <v>0.004109772340860079</v>
+        <v>3.824794657284611e-09</v>
       </c>
       <c r="I27" t="n">
-        <v>0.005181529844913656</v>
+        <v>4.553148619341753e-09</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0005881623624072747</v>
+        <v>5.208639554882825e-09</v>
       </c>
       <c r="K27" t="n">
-        <v>0.007706231197944881</v>
+        <v>5.780729409656223e-09</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>6.282882490546244e-09</v>
       </c>
     </row>
     <row r="28">
@@ -1491,34 +1491,34 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01312734059254091</v>
+        <v>4.256742480661355e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00241042389315623</v>
+        <v>3.859788841513422e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.086908587229708e-12</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01288615911244066</v>
+        <v>2.000758421411921e-12</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.998085348041074e-12</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.001253580270186e-12</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4.969700730638637e-12</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>5.886824015726986e-12</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0002817575428748922</v>
+        <v>6.726035649779501e-12</v>
       </c>
       <c r="L28" t="n">
-        <v>0.008534261929166021</v>
+        <v>7.49346384538589e-12</v>
       </c>
     </row>
     <row r="29">
@@ -1529,34 +1529,34 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02684922195757735</v>
+        <v>0.02734001431021396</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04211035973691248</v>
+        <v>0.05763013901646194</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0521080715075027</v>
+        <v>0.07435522725634053</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06833344556000383</v>
+        <v>0.08188423735534545</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06508016375620986</v>
+        <v>0.08431448784180046</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.425773518734113e-15</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0163396386006532</v>
+        <v>1.848268571579752e-15</v>
       </c>
       <c r="J29" t="n">
-        <v>0.004895577457979416</v>
+        <v>2.267093090820528e-15</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01420596425279948</v>
+        <v>2.666212632137337e-15</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3.044133498891943e-15</v>
       </c>
     </row>
     <row r="30">
@@ -1567,34 +1567,34 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003340316264198966</v>
+        <v>0.007204967799003121</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002992499085037602</v>
+        <v>0.01945878435641015</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0295697147849171</v>
+        <v>0.02972848892643154</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02984355244646603</v>
+        <v>0.03710874565870419</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02733708330765957</v>
+        <v>0.04217181762768553</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07586127684676089</v>
+        <v>0.08391787641342145</v>
       </c>
       <c r="I30" t="n">
-        <v>0.06301369783422374</v>
+        <v>0.08203427396189895</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07333863505241056</v>
+        <v>0.07942351523416601</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0772276712381683</v>
+        <v>0.07632227602901497</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05274588582173838</v>
+        <v>0.07306028401880939</v>
       </c>
     </row>
     <row r="31">
@@ -1605,34 +1605,34 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.0006051961191863024</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002454197792897066</v>
+        <v>0.002019772635504351</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0002966017414740133</v>
+        <v>0.003511482884441014</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.004821350592302285</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01954243517833237</v>
+        <v>0.005873812437784179</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03378848840223727</v>
+        <v>0.04556554336606419</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0378898511057507</v>
+        <v>0.04779476356708465</v>
       </c>
       <c r="J31" t="n">
-        <v>0.03524412731589356</v>
+        <v>0.04921011468963786</v>
       </c>
       <c r="K31" t="n">
-        <v>0.02922482595944811</v>
+        <v>0.04990160913872356</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03989748594537129</v>
+        <v>0.05013511561205474</v>
       </c>
     </row>
     <row r="32">
@@ -1643,34 +1643,34 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.288217828086516e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.009030583494731032</v>
+        <v>5.842790509612191e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.0001191680194363478</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.0001818058035901954</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0002390314291675771</v>
       </c>
       <c r="H32" t="n">
-        <v>0.007040833799270116</v>
+        <v>0.00669011913982469</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.007316986542881528</v>
       </c>
       <c r="J32" t="n">
-        <v>0.006663103892557395</v>
+        <v>0.007803610678864336</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01063542788200464</v>
+        <v>0.00817419562849995</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.008457948158253431</v>
       </c>
     </row>
     <row r="33">
@@ -1681,34 +1681,34 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>7.506197038099735e-08</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4.75092056727305e-07</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01158827872670016</v>
+        <v>1.152740549569229e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.961701310866684e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.787412820989729e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>0.004700357397535658</v>
+        <v>0.0002885651243526843</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01278722674055861</v>
+        <v>0.000330482058756442</v>
       </c>
       <c r="J33" t="n">
-        <v>0.000848383387305037</v>
+        <v>0.0003656821141409021</v>
       </c>
       <c r="K33" t="n">
-        <v>0.007791336955275996</v>
+        <v>0.0003942535301849126</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0004176136317986076</v>
       </c>
     </row>
     <row r="34">
@@ -1719,34 +1719,34 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.313832570621701e-10</v>
       </c>
       <c r="D34" t="n">
-        <v>0.004583428831023477</v>
+        <v>1.176171915627347e-09</v>
       </c>
       <c r="E34" t="n">
-        <v>0.006728672557239543</v>
+        <v>3.409755110079505e-09</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.474596996786574e-09</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003303272321148961</v>
+        <v>9.936498602445441e-09</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001857818469269986</v>
+        <v>3.57018881963082e-06</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.285307999487704e-06</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>4.926917768528691e-06</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0007981741502692754</v>
+        <v>5.485517101277232e-06</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>5.971432185635786e-06</v>
       </c>
     </row>
     <row r="35">
@@ -1757,34 +1757,34 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7.370107909314538e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01157479021976915</v>
+        <v>9.445877817284168e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.279796988995383e-12</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001573297206949988</v>
+        <v>6.951976779997687e-12</v>
       </c>
       <c r="G35" t="n">
-        <v>0.008952234241196779</v>
+        <v>1.152066337631262e-11</v>
       </c>
       <c r="H35" t="n">
-        <v>0.009635463840677413</v>
+        <v>1.34923179005262e-08</v>
       </c>
       <c r="I35" t="n">
-        <v>0.002734782081269697</v>
+        <v>1.69633160022042e-08</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.026157658346163e-08</v>
       </c>
       <c r="K35" t="n">
-        <v>0.003010207213227878</v>
+        <v>2.328882042044975e-08</v>
       </c>
       <c r="L35" t="n">
-        <v>0.002504191843420069</v>
+        <v>2.604940090364865e-08</v>
       </c>
     </row>
     <row r="36">
@@ -1795,34 +1795,34 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.004470277595558606</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02532242300001257</v>
+        <v>0.01908727858479554</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.078262409016038e-15</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.556343538316248e-15</v>
       </c>
       <c r="G36" t="n">
-        <v>0.002271522708502124</v>
+        <v>4.57697915448545e-15</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.657495554626316e-11</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.181459219313779e-11</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.70547216792046e-11</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>3.208477209147221e-11</v>
       </c>
       <c r="L36" t="n">
-        <v>0.001908795094552108</v>
+        <v>3.685656866508e-11</v>
       </c>
     </row>
     <row r="37">
@@ -1833,34 +1833,34 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.0003653058737120093</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002971427140622107</v>
+        <v>0.002066558569491106</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03762589865657846</v>
+        <v>0.03967935517977773</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04054755298335609</v>
+        <v>0.05970150028434486</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05909536504495687</v>
+        <v>0.07681432658090356</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01672182725448445</v>
+        <v>6.976046846360894e-15</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.60720593693166e-15</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01069246389179706</v>
+        <v>1.236500522104619e-14</v>
       </c>
       <c r="K37" t="n">
-        <v>0.003741401562076577</v>
+        <v>1.512075175867007e-14</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01661759384656019</v>
+        <v>1.782811911603469e-14</v>
       </c>
     </row>
     <row r="38">
@@ -1871,34 +1871,34 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01616177761134125</v>
+        <v>7.943831678316503e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002163438284048409</v>
+        <v>6.756437074063008e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004688770865394669</v>
+        <v>0.005130320916380143</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01659535180113643</v>
+        <v>0.008656592244109019</v>
       </c>
       <c r="G38" t="n">
-        <v>0.002988156972096653</v>
+        <v>0.01207287707485117</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06804361874216326</v>
+        <v>0.09055493552844164</v>
       </c>
       <c r="I38" t="n">
-        <v>0.08450428309411891</v>
+        <v>0.1011508578458776</v>
       </c>
       <c r="J38" t="n">
-        <v>0.08777559771949903</v>
+        <v>0.1092125230993369</v>
       </c>
       <c r="K38" t="n">
-        <v>0.09591290317158947</v>
+        <v>0.1149800808951961</v>
       </c>
       <c r="L38" t="n">
-        <v>0.09901908049119371</v>
+        <v>0.1190498004814716</v>
       </c>
     </row>
     <row r="39">
@@ -1909,34 +1909,34 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>4.885352251796322e-08</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01305449261266968</v>
+        <v>6.539748663755565e-07</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.0002037361334301943</v>
       </c>
       <c r="F39" t="n">
-        <v>0.004398757538137112</v>
+        <v>0.0003864888513378015</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01379344171907894</v>
+        <v>0.0005767239450116809</v>
       </c>
       <c r="H39" t="n">
-        <v>0.008809817694229021</v>
+        <v>0.0150458609791349</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02256089690323557</v>
+        <v>0.0175690493411488</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01388114071130925</v>
+        <v>0.01981362864936527</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02542292424719797</v>
+        <v>0.02176439657366087</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02047171370269871</v>
+        <v>0.02343826797292664</v>
       </c>
     </row>
     <row r="40">
@@ -1947,34 +1947,34 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>9.333619728090633e-11</v>
       </c>
       <c r="D40" t="n">
-        <v>0.009976618102291635</v>
+        <v>1.974841066998978e-09</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.38234162962908e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5.015301155483323e-06</v>
       </c>
       <c r="G40" t="n">
-        <v>0.006708677533496874</v>
+        <v>7.921495686814742e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>0.003275338301895553</v>
+        <v>0.0007507954266005181</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.0009167363827812648</v>
       </c>
       <c r="J40" t="n">
-        <v>0.003474371667498717</v>
+        <v>0.001072269418572883</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0001474583221470497</v>
+        <v>0.001213994101747764</v>
       </c>
       <c r="L40" t="n">
-        <v>0.001440746301671299</v>
+        <v>0.001342100613774742</v>
       </c>
     </row>
     <row r="41">
@@ -1985,34 +1985,34 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002074657672800214</v>
+        <v>5.847423394703285e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003627623334129427</v>
+        <v>1.956497236978826e-12</v>
       </c>
       <c r="E41" t="n">
-        <v>3.967538615052918e-05</v>
+        <v>8.631947215229271e-09</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01179310614737877</v>
+        <v>1.976042596920388e-08</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3.347791038734694e-08</v>
       </c>
       <c r="H41" t="n">
-        <v>0.008962132608272605</v>
+        <v>1.099733197331869e-05</v>
       </c>
       <c r="I41" t="n">
-        <v>0.007138959681921651</v>
+        <v>1.415751042674631e-05</v>
       </c>
       <c r="J41" t="n">
-        <v>0.008153620114534415</v>
+        <v>1.728864022764934e-05</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.029116568776912e-05</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0005204941742898926</v>
+        <v>2.312712958350361e-05</v>
       </c>
     </row>
     <row r="42">
@@ -2023,34 +2023,34 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.006403211288628759</v>
+        <v>8.545468327194794e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>6.621730803249378e-16</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.017630272787297e-11</v>
       </c>
       <c r="F42" t="n">
-        <v>0.006506946177539745</v>
+        <v>2.508875926102671e-11</v>
       </c>
       <c r="G42" t="n">
-        <v>0.004185827792480832</v>
+        <v>4.639526152467072e-11</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.968700347640716e-08</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.744651944240335e-08</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>8.603867406489264e-08</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01060899866029856</v>
+        <v>1.047078009847616e-07</v>
       </c>
       <c r="L42" t="n">
-        <v>0.002171654118411863</v>
+        <v>1.230809315951852e-07</v>
       </c>
     </row>
     <row r="43">
@@ -2061,34 +2061,34 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.820234271012335e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>0.008399478658618198</v>
+        <v>0.0006837890110842807</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01232448964924775</v>
+        <v>4.015971212488067e-15</v>
       </c>
       <c r="F43" t="n">
-        <v>0.006811889611821005</v>
+        <v>1.095789841781953e-14</v>
       </c>
       <c r="G43" t="n">
-        <v>0.002172420771902847</v>
+        <v>2.213356118191937e-14</v>
       </c>
       <c r="H43" t="n">
-        <v>0.007280682851578891</v>
+        <v>7.353089903800311e-11</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.051479466306429e-10</v>
       </c>
       <c r="J43" t="n">
-        <v>0.006695976177478529</v>
+        <v>1.400058341259169e-10</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.765570519454711e-10</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>2.139301360555961e-10</v>
       </c>
     </row>
     <row r="44">
@@ -2099,34 +2099,34 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00520460604397117</v>
+        <v>1.104338339389974e-08</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2.234906025395548e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02049528667233439</v>
+        <v>0.002538955371959632</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.006152758950347805</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01201889735623453</v>
+        <v>0.01161454867196528</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.746124362538471e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.641116581787474e-14</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>7.835028903414399e-14</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.023241782372008e-13</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.277343626752618e-13</v>
       </c>
     </row>
     <row r="45">
@@ -2137,34 +2137,34 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01495139877346293</v>
+        <v>2.102655952918419e-11</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2.300319050023596e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0008038526753890254</v>
+        <v>0.0001085428919640872</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.0003144579185300877</v>
       </c>
       <c r="G45" t="n">
-        <v>0.004064105718194267</v>
+        <v>0.0006727304303984358</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02946375035709786</v>
+        <v>0.01867079160698954</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02010848885531332</v>
+        <v>0.0267612500705527</v>
       </c>
       <c r="J45" t="n">
-        <v>0.03215808338883038</v>
+        <v>0.03522885167443873</v>
       </c>
       <c r="K45" t="n">
-        <v>0.04956296710982743</v>
+        <v>0.04371021012097211</v>
       </c>
       <c r="L45" t="n">
-        <v>0.04045639194055874</v>
+        <v>0.05198281983563036</v>
       </c>
     </row>
     <row r="46">
@@ -2175,34 +2175,34 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0005624520381070157</v>
+        <v>1.326820980909952e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01393250097294403</v>
+        <v>7.877758234391152e-10</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.489509974482596e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005060120115279283</v>
+        <v>5.189302874519334e-06</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.259557108983103e-05</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01886433339812291</v>
+        <v>0.001180139959549079</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.001783297622249559</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01710613242711113</v>
+        <v>0.002449228565145816</v>
       </c>
       <c r="K46" t="n">
-        <v>4.313102574001201e-05</v>
+        <v>0.00314545873916255</v>
       </c>
       <c r="L46" t="n">
-        <v>0.006450939032175931</v>
+        <v>0.00385077286103438</v>
       </c>
     </row>
     <row r="47">
@@ -2213,34 +2213,34 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1.419140231557492e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0001074020905127431</v>
+        <v>9.288460916008343e-13</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01204474365848828</v>
+        <v>6.683833561928664e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2.788833543839562e-08</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>7.407385089403367e-08</v>
       </c>
       <c r="H47" t="n">
-        <v>0.008862491667119167</v>
+        <v>2.36021771022315e-05</v>
       </c>
       <c r="I47" t="n">
-        <v>0.009669632255915866</v>
+        <v>3.769017809770791e-05</v>
       </c>
       <c r="J47" t="n">
-        <v>0.001951095043829295</v>
+        <v>5.420738742179384e-05</v>
       </c>
       <c r="K47" t="n">
-        <v>0.002342623023526807</v>
+        <v>7.220670474548744e-05</v>
       </c>
       <c r="L47" t="n">
-        <v>0.00712540840857615</v>
+        <v>9.079598460683736e-05</v>
       </c>
     </row>
     <row r="48">
@@ -2251,34 +2251,34 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>8.681290084076845e-10</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>3.850271558001644e-16</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0101081257303308</v>
+        <v>1.011307722593502e-11</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>4.971829536520049e-11</v>
       </c>
       <c r="G48" t="n">
-        <v>0.005548985410189827</v>
+        <v>1.426890381414355e-10</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01280705470416408</v>
+        <v>1.480047985307505e-07</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2.494799564826206e-07</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0111992582016631</v>
+        <v>3.742288214487723e-07</v>
       </c>
       <c r="K48" t="n">
-        <v>0.00197514587932837</v>
+        <v>5.119453113525673e-07</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>6.523772381341222e-07</v>
       </c>
     </row>
     <row r="49">
@@ -2289,34 +2289,34 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0114917189774157</v>
+        <v>1.664451730740014e-12</v>
       </c>
       <c r="D49" t="n">
-        <v>0.007726834298286723</v>
+        <v>2.393808100160822e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01051352285967579</v>
+        <v>5.394537860968835e-15</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>3.014165446000958e-14</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01523691238040335</v>
+        <v>9.437775873871842e-14</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>3.043675859731624e-10</v>
       </c>
       <c r="I49" t="n">
-        <v>0.005449005559998583</v>
+        <v>5.391810822712754e-10</v>
       </c>
       <c r="J49" t="n">
-        <v>0.009944871137965777</v>
+        <v>8.346912972511861e-10</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1.151737741354275e-09</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0008488584075423187</v>
+        <v>1.471720119702197e-09</v>
       </c>
     </row>
     <row r="50">
@@ -2327,34 +2327,34 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01950276807403416</v>
+        <v>1.061193670507216e-15</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2.498330067480321e-08</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0078907870050418</v>
+        <v>1.474751258874017e-05</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002105826858287494</v>
+        <v>5.560541112124911e-05</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.0001534612999755587</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2.145931276872392e-13</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01356218719678159</v>
+        <v>3.924342255300238e-13</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0007012311750292093</v>
+        <v>6.119704261095743e-13</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>8.575153625508052e-13</v>
       </c>
       <c r="L50" t="n">
-        <v>0.01496672913263246</v>
+        <v>1.138742002637794e-12</v>
       </c>
     </row>
     <row r="51">
@@ -2365,34 +2365,34 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1.997104980266364e-11</v>
       </c>
       <c r="D51" t="n">
-        <v>0.008593379636595422</v>
+        <v>8.76354939719962e-11</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>2.064426897965187e-07</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>9.608512570307309e-07</v>
       </c>
       <c r="G51" t="n">
-        <v>0.009542113161500556</v>
+        <v>3.104880773129074e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00617717565480889</v>
+        <v>0.0003460976665345105</v>
       </c>
       <c r="I51" t="n">
-        <v>0.001274966165561624</v>
+        <v>0.0006814713538225692</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0004345058689300486</v>
+        <v>0.001193577845038799</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>0.001903253920278424</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.002825635873916295</v>
       </c>
     </row>
     <row r="52">
@@ -2403,34 +2403,34 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.003467057345760402</v>
+        <v>3.91119677550652e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01197439528849603</v>
+        <v>1.079278898191189e-13</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01412538293435339</v>
+        <v>9.737315786118612e-10</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0137115587151441</v>
+        <v>5.674595671577581e-09</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01041011473548117</v>
+        <v>2.235112408187236e-08</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>8.118762717823315e-06</v>
       </c>
       <c r="I52" t="n">
-        <v>0.003121289059468146</v>
+        <v>1.768569833044105e-05</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0007589964273093194</v>
+        <v>3.344042083415961e-05</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>5.685171016836622e-05</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>8.929341346876071e-05</v>
       </c>
     </row>
     <row r="53">
@@ -2441,34 +2441,34 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00420371887418707</v>
+        <v>2.51024162383409e-17</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>4.67093771861842e-17</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1.583760760939524e-12</v>
       </c>
       <c r="F53" t="n">
-        <v>0.005997020279210778</v>
+        <v>1.19348676490206e-11</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0005912209821723942</v>
+        <v>5.642400788859783e-11</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00139773255188379</v>
+        <v>6.608208066256191e-08</v>
       </c>
       <c r="I53" t="n">
-        <v>0.001696422624910727</v>
+        <v>1.565537075132253e-07</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>3.169931581674412e-07</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>5.753435070612772e-07</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>9.577981062018881e-07</v>
       </c>
     </row>
     <row r="54">
@@ -2479,34 +2479,34 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0002098746096034519</v>
+        <v>2.581376246297113e-16</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01128569175053308</v>
+        <v>8.545380844841411e-10</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001404390978160681</v>
+        <v>8.772217040907555e-16</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>9.121911615769154e-15</v>
       </c>
       <c r="G54" t="n">
-        <v>0.005921754664799449</v>
+        <v>5.006649979845882e-14</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1.84955632319283e-10</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>4.731242395712674e-10</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1.023778199220469e-09</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1.985465695093931e-09</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>3.464631670747309e-09</v>
       </c>
     </row>
     <row r="55">
@@ -2517,34 +2517,34 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1.348245892419028e-20</v>
       </c>
       <c r="D55" t="n">
-        <v>0.007264688980696279</v>
+        <v>3.076090116790575e-12</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>8.940893988821603e-09</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002906264932575423</v>
+        <v>5.245600693524461e-08</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2.051326721628235e-07</v>
       </c>
       <c r="H55" t="n">
-        <v>0.001023669471168875</v>
+        <v>1.810045469017425e-13</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>5.045030316765451e-13</v>
       </c>
       <c r="J55" t="n">
-        <v>0.005359014224752533</v>
+        <v>1.1672032593609e-12</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>2.355657353018035e-12</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>4.204179409638865e-12</v>
       </c>
     </row>
     <row r="56">
@@ -2555,34 +2555,34 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>7.229561334301676e-18</v>
       </c>
       <c r="D56" t="n">
-        <v>0.002650372666078926</v>
+        <v>3.981053385627359e-15</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004035104607509836</v>
+        <v>4.269429545343611e-11</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>3.234302321229978e-10</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1.508746704463814e-09</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>6.169795551745106e-07</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01269311952571534</v>
+        <v>1.537594936760233e-06</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>3.360367874906472e-06</v>
       </c>
       <c r="K56" t="n">
-        <v>0.009349379454593014</v>
+        <v>6.691601044620575e-06</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1.223150714353069e-05</v>
       </c>
     </row>
     <row r="57">
@@ -2593,34 +2593,34 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>6.756693473757965e-18</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>3.358661957184973e-14</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>7.259124261430826e-14</v>
       </c>
       <c r="F57" t="n">
-        <v>0.007152568768787494</v>
+        <v>7.242649437349622e-13</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01029601763778507</v>
+        <v>4.078819209575329e-12</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>5.220806329726094e-09</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1.447842968372851e-08</v>
       </c>
       <c r="J57" t="n">
-        <v>0.01018310658517287</v>
+        <v>3.460255941106612e-08</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>7.464183062055318e-08</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.457102703793298e-07</v>
       </c>
     </row>
     <row r="58">
@@ -2631,34 +2631,34 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.001200420304033114</v>
+        <v>6.997520663951541e-18</v>
       </c>
       <c r="D58" t="n">
-        <v>0.004189410209392758</v>
+        <v>4.500962995692639e-17</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0006425749856278202</v>
+        <v>4.270870991521489e-17</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001924525864817498</v>
+        <v>5.908406020636977e-16</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0004845718616825681</v>
+        <v>4.05471434596144e-15</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1.619916170080528e-11</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>4.908593188328929e-11</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1.267141597919355e-10</v>
       </c>
       <c r="K58" t="n">
-        <v>0.001976584558425276</v>
+        <v>2.966256523823434e-10</v>
       </c>
       <c r="L58" t="n">
-        <v>0.001108380017715342</v>
+        <v>6.337179419750696e-10</v>
       </c>
     </row>
     <row r="59">
@@ -2669,34 +2669,34 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0238589140624644</v>
+        <v>1.370253037889275e-17</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0154861992095646</v>
+        <v>4.140428162285448e-17</v>
       </c>
       <c r="E59" t="n">
-        <v>0.009322676406801742</v>
+        <v>5.819425799439638e-13</v>
       </c>
       <c r="F59" t="n">
-        <v>0.008209491443777873</v>
+        <v>5.700543710086949e-12</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>3.209859711200466e-11</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1.833177945142227e-14</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>5.780885510956236e-14</v>
       </c>
       <c r="J59" t="n">
-        <v>0.002644254240291476</v>
+        <v>1.611182442841433e-13</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>4.352043029423762e-13</v>
       </c>
       <c r="L59" t="n">
-        <v>0.00759273982976081</v>
+        <v>1.040704309876986e-12</v>
       </c>
     </row>
     <row r="60">
@@ -2707,34 +2707,34 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.005963230490847385</v>
+        <v>1.214262804222178e-17</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>5.800140377166911e-17</v>
       </c>
       <c r="E60" t="n">
-        <v>0.006013337226180101</v>
+        <v>1.013587089511401e-15</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004264614545732333</v>
+        <v>1.35338562581287e-14</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>9.223696110146939e-14</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1.284634036986438e-10</v>
       </c>
       <c r="I60" t="n">
-        <v>0.006105291834292651</v>
+        <v>3.936223535383138e-10</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1.052800172942737e-09</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>2.595937832914734e-09</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>5.707230669761598e-09</v>
       </c>
     </row>
     <row r="61">
@@ -2745,34 +2745,34 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>2.683286277954332e-18</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>9.287596338144027e-17</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>2.99066469765917e-18</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>8.294662452153281e-17</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>9.95705930561265e-17</v>
       </c>
       <c r="H61" t="n">
-        <v>0.006620109799109208</v>
+        <v>4.242913050466234e-13</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1.411918210502123e-12</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>4.143406741130058e-12</v>
       </c>
       <c r="K61" t="n">
-        <v>0.004114856078239006</v>
+        <v>1.128007869899828e-11</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2.682609229625122e-11</v>
       </c>
     </row>
     <row r="62">
@@ -2783,34 +2783,34 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2.709565709685159e-20</v>
       </c>
       <c r="D62" t="n">
-        <v>0.003708012216056032</v>
+        <v>2.586208303978892e-16</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>9.558513606958225e-17</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01692550028303072</v>
+        <v>1.590985394719151e-16</v>
       </c>
       <c r="G62" t="n">
-        <v>0.002671561490332788</v>
+        <v>6.99123568068753e-16</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>5.351167125176954e-16</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1.90772181828231e-15</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>6.131769609360571e-15</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1.840049838961851e-14</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>4.750267190623964e-14</v>
       </c>
     </row>
     <row r="63">
@@ -2824,31 +2824,31 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1.392559526766884e-18</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1.561629675583044e-16</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01118607958039026</v>
+        <v>2.79963794773177e-16</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01228172012230846</v>
+        <v>2.260707575941789e-16</v>
       </c>
       <c r="H63" t="n">
-        <v>0.007183647522315475</v>
+        <v>3.713184240111934e-15</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1.308933678348669e-14</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01461607815900097</v>
+        <v>4.304300805737718e-14</v>
       </c>
       <c r="K63" t="n">
-        <v>0.007548107736836355</v>
+        <v>1.341709934009643e-13</v>
       </c>
       <c r="L63" t="n">
-        <v>0.01284744526341206</v>
+        <v>3.563869495979509e-13</v>
       </c>
     </row>
     <row r="64">
@@ -2865,28 +2865,28 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.008324215339666362</v>
+        <v>3.093233634112013e-16</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>6.299470779836747e-16</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>4.133310825100956e-16</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2.980461122870184e-16</v>
       </c>
       <c r="I64" t="n">
-        <v>0.01716964169029277</v>
+        <v>1.451654017913025e-17</v>
       </c>
       <c r="J64" t="n">
-        <v>0.007733756757151349</v>
+        <v>6.432027586123687e-17</v>
       </c>
       <c r="K64" t="n">
-        <v>0.004106421324788281</v>
+        <v>2.363704334541398e-16</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>6.923834870212537e-16</v>
       </c>
     </row>
     <row r="65">
@@ -2903,28 +2903,28 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.009499050229907751</v>
+        <v>1.228460143017133e-19</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1.093326653729407e-17</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1.012192613449203e-15</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>5.4732787601063e-16</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3.807629028682915e-16</v>
       </c>
       <c r="J65" t="n">
-        <v>5.342857594312103e-05</v>
+        <v>5.062673699104191e-16</v>
       </c>
       <c r="K65" t="n">
-        <v>0.004188181375716098</v>
+        <v>7.786076387409824e-16</v>
       </c>
       <c r="L65" t="n">
-        <v>0.00254323559016625</v>
+        <v>1.404864124029869e-15</v>
       </c>
     </row>
     <row r="66">
@@ -2941,28 +2941,28 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2.934433967865885e-19</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00328617489172401</v>
+        <v>5.433005793427083e-18</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2.114672548849426e-17</v>
       </c>
       <c r="H66" t="n">
-        <v>0.004783763309968413</v>
+        <v>2.092462890839014e-18</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>6.773945451793828e-16</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0008988980149453016</v>
+        <v>8.017492047231402e-16</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>9.16350201133048e-16</v>
       </c>
       <c r="L66" t="n">
-        <v>0.01270098454866256</v>
+        <v>1.022115879516915e-15</v>
       </c>
     </row>
     <row r="67">
@@ -2982,25 +2982,25 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.006836428848437095</v>
+        <v>1.23148889981039e-18</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1.43199084804622e-17</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0008166919115902278</v>
+        <v>5.281346155870251e-17</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>8.92297968290086e-19</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>5.034535506515255e-18</v>
       </c>
       <c r="K67" t="n">
-        <v>0.004740960873351035</v>
+        <v>1.050161040335569e-17</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1.64842181700152e-17</v>
       </c>
     </row>
     <row r="68">
@@ -3026,19 +3026,19 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.004658139159681367</v>
+        <v>6.146980337444944e-17</v>
       </c>
       <c r="I68" t="n">
-        <v>0.002643015247272856</v>
+        <v>1.00186459249229e-16</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1.601872563495145e-16</v>
       </c>
       <c r="K68" t="n">
-        <v>0.004140238614932247</v>
+        <v>2.346920868028675e-16</v>
       </c>
       <c r="L68" t="n">
-        <v>0.006046497718623193</v>
+        <v>3.252809156329425e-16</v>
       </c>
     </row>
     <row r="69">
@@ -3064,19 +3064,19 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.001230001696720962</v>
+        <v>5.553304768812265e-18</v>
       </c>
       <c r="I69" t="n">
-        <v>0.001205404902196073</v>
+        <v>1.882975082585319e-16</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>4.594520827436055e-16</v>
       </c>
       <c r="K69" t="n">
-        <v>0.004724421918004484</v>
+        <v>9.661964384018773e-16</v>
       </c>
       <c r="L69" t="n">
-        <v>0.002077134346195025</v>
+        <v>1.796062349446823e-15</v>
       </c>
     </row>
     <row r="70">
@@ -3105,16 +3105,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.006329086917810002</v>
+        <v>2.270908231175758e-17</v>
       </c>
       <c r="J70" t="n">
-        <v>0.002275482947429899</v>
+        <v>7.531243680076065e-17</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>2.330694082691933e-16</v>
       </c>
       <c r="L70" t="n">
-        <v>0.004741134749953166</v>
+        <v>5.980453634142495e-16</v>
       </c>
     </row>
     <row r="71">
@@ -3143,16 +3143,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.003507507990826011</v>
+        <v>-8.920424248500615e-20</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1.214756184727549e-18</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>8.333296518985042e-18</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>2.779287537814263e-17</v>
       </c>
     </row>
   </sheetData>

--- a/data/CED_focus_Sim_Gaussian_0.01.xlsx
+++ b/data/CED_focus_Sim_Gaussian_0.01.xlsx
@@ -500,37 +500,37 @@
         <v>0.5800000000000005</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08151397903622727</v>
+        <v>0.08230433230101634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.145266885430672</v>
+        <v>0.04315019140355925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07829723166674225</v>
+        <v>0.04318720584178008</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06871947162809323</v>
+        <v>0.03177617027554877</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06851764252250632</v>
+        <v>0.02451219470563172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04105813329059309</v>
+        <v>0.01673423987980947</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03179106506410417</v>
+        <v>0.02447097066427906</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03308444002674402</v>
+        <v>0.019198301360011</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02839652531943021</v>
+        <v>0.003370278333398704</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01282575278258167</v>
+        <v>0.01063407446374763</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01534311869049671</v>
+        <v>0.02182854169922821</v>
       </c>
     </row>
     <row r="3">
@@ -538,37 +538,37 @@
         <v>0.730754208939027</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08549116829141987</v>
+        <v>0.08577318931468335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1383528372085178</v>
+        <v>0.06648455174599049</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08847307594639418</v>
+        <v>0.05111078506555036</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06346653001799836</v>
+        <v>0.04489178015823689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07749838579564458</v>
+        <v>0.04848718171288751</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06032484388287693</v>
+        <v>0.03890128094545187</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03841207213754057</v>
+        <v>0.0321632206804276</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04708120106059138</v>
+        <v>0.0374125488332499</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03635851237074283</v>
+        <v>0.01489387352060511</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02642698312740667</v>
+        <v>0.04457661348571732</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03561614751308095</v>
+        <v>0.01488409547058819</v>
       </c>
     </row>
     <row r="4">
@@ -576,37 +576,37 @@
         <v>0.8365047507782974</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07956906601330761</v>
+        <v>0.06676255625086175</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03724333492547059</v>
+        <v>0.06972390922645083</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03284522286288931</v>
+        <v>0.06003008799217999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01811708424569773</v>
+        <v>0.0516534893583756</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02408978937771881</v>
+        <v>0.0324129132767847</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02729256086755498</v>
+        <v>0.03970587792609904</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007771131390811535</v>
+        <v>0.03712152083114573</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02149527024787147</v>
+        <v>0.03942736422563296</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005411757726926127</v>
+        <v>0.02308355383230217</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01293843675722787</v>
+        <v>0.02389491761725639</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005284112082935314</v>
+        <v>0.02358798548413089</v>
       </c>
     </row>
     <row r="5">
@@ -614,37 +614,37 @@
         <v>0.9206926101415563</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07452131711863635</v>
+        <v>0.07010308374136916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.137315607119674</v>
+        <v>0.06584125859160203</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1092050488108722</v>
+        <v>0.04302213125139185</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08999964139168318</v>
+        <v>0.06915100629469473</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1029616392505559</v>
+        <v>0.0510199660490475</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09360780176625</v>
+        <v>0.04607167679438202</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07555621022372426</v>
+        <v>0.04276772635581545</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0727795698860403</v>
+        <v>0.01886965136098296</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08855881161975479</v>
+        <v>0.03817974825588521</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07909811357414726</v>
+        <v>0.04328939923588456</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07236399172981735</v>
+        <v>0.02943096544682042</v>
       </c>
     </row>
     <row r="6">
@@ -652,37 +652,37 @@
         <v>0.9917860490724849</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05909033071810738</v>
+        <v>0.05965050168983282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05111148273265468</v>
+        <v>0.05816486194588232</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04448524087822626</v>
+        <v>0.05237827577098125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03648490909110162</v>
+        <v>0.03345183338769517</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03021544850202432</v>
+        <v>0.04910716493300786</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02703855690681845</v>
+        <v>0.05573982813483873</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03230633676528939</v>
+        <v>0.03298317937548135</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03432472882905842</v>
+        <v>0.0372562625989675</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02250576547218664</v>
+        <v>0.04254872892438383</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02121914628807179</v>
+        <v>0.03516253903181001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03281789003440293</v>
+        <v>0.03265907133741301</v>
       </c>
     </row>
     <row r="7">
@@ -690,37 +690,37 @@
         <v>1.053929943842642</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06212355784782048</v>
+        <v>0.05616819912597627</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02734794809634686</v>
+        <v>0.06158283408505373</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03141170474477313</v>
+        <v>0.05094890743683596</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03392352074538703</v>
+        <v>0.04073688490740075</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0290025878292996</v>
+        <v>0.04830068868718918</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03072082984951201</v>
+        <v>0.03997332212416299</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02939652603253979</v>
+        <v>0.04229268840728909</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03054262566443749</v>
+        <v>0.04958166000857714</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02740927138361898</v>
+        <v>0.04218162057827386</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01115626909086042</v>
+        <v>0.03780206351625728</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03502143956153906</v>
+        <v>0.04072766946504056</v>
       </c>
     </row>
     <row r="8">
@@ -728,37 +728,37 @@
         <v>1.160000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05153859584728657</v>
+        <v>0.04271734402460722</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1052431965311548</v>
+        <v>0.05532061409396261</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1097864301850806</v>
+        <v>0.06073473978532323</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1204912559744755</v>
+        <v>0.05245003015099223</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1073039202275924</v>
+        <v>0.04873562558060955</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1143116895858896</v>
+        <v>0.05192553167600417</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1093157219257598</v>
+        <v>0.03920955980940267</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09797696550449944</v>
+        <v>0.03308556066821704</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1018217079080976</v>
+        <v>0.03617157585262867</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09921798268654436</v>
+        <v>0.05676090493039253</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09645043132068024</v>
+        <v>0.03746820046936455</v>
       </c>
     </row>
     <row r="9">
@@ -766,37 +766,37 @@
         <v>1.206448617370105</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0477085342043129</v>
+        <v>0.04913128889530868</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03629225183047461</v>
+        <v>0.04443835269548868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03340665983609619</v>
+        <v>0.05903974402048272</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03223717715602226</v>
+        <v>0.05038446187376749</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03016246558956676</v>
+        <v>0.04009422720887187</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02833375006445289</v>
+        <v>0.02944174250912558</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02449021505338323</v>
+        <v>0.04665290151038486</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03069483658038627</v>
+        <v>0.06215241700099931</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01395626631477009</v>
+        <v>0.04228609391940675</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01724350375531323</v>
+        <v>0.03979768126555545</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03560359445898675</v>
+        <v>0.03997096666936654</v>
       </c>
     </row>
     <row r="10">
@@ -804,37 +804,37 @@
         <v>1.249572120218493</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03609355894144868</v>
+        <v>0.03779082156038204</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007299255313004418</v>
+        <v>0.05414053437674474</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03271337299635671</v>
+        <v>0.05481305970298991</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04040891252531038</v>
+        <v>0.04051172996899722</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02802436317879206</v>
+        <v>0.04907128848930285</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04211849113804171</v>
+        <v>0.06362313912570901</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02752529849986873</v>
+        <v>0.04781506497264663</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03634508537015765</v>
+        <v>0.04448227170369266</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0309325206224397</v>
+        <v>0.05392720658176164</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02004627162981263</v>
+        <v>0.05915386604478019</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02822476328886812</v>
+        <v>0.05357552519638095</v>
       </c>
     </row>
     <row r="11">
@@ -842,37 +842,37 @@
         <v>1.327868521361866</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0248196086623841</v>
+        <v>0.03356438531021193</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02556630793586997</v>
+        <v>0.04549542155068054</v>
       </c>
       <c r="D11" t="n">
-        <v>0.032310251244189</v>
+        <v>0.04414617817673826</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04640085917461231</v>
+        <v>0.0468239301115977</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06397608637415994</v>
+        <v>0.04476051860951265</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05878696401843286</v>
+        <v>0.05218916485125444</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07997845621523567</v>
+        <v>0.03764554739320485</v>
       </c>
       <c r="I11" t="n">
-        <v>0.061801491471035</v>
+        <v>0.04762925199399627</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08292097319282593</v>
+        <v>0.03923716588510672</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06094152275491609</v>
+        <v>0.05694806830407823</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06534983681639564</v>
+        <v>0.04862808781372075</v>
       </c>
     </row>
     <row r="12">
@@ -880,37 +880,37 @@
         <v>1.461508417878054</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02418474769837732</v>
+        <v>0.02353431634278086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03925780082329147</v>
+        <v>0.03892351585881788</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04937126446397393</v>
+        <v>0.03284115313263299</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06924280020982011</v>
+        <v>0.03768782852373888</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08132480529900601</v>
+        <v>0.04478343479240295</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09358720370695484</v>
+        <v>0.04349525555682902</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09632063304878258</v>
+        <v>0.05532987008070561</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08496565029518113</v>
+        <v>0.05110228775128346</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09463125779934586</v>
+        <v>0.03542624098966407</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1033112996968524</v>
+        <v>0.03829973519103593</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0931142515294331</v>
+        <v>0.03987145611463596</v>
       </c>
     </row>
     <row r="13">
@@ -918,37 +918,37 @@
         <v>1.491343322581777</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03532446598072455</v>
+        <v>0.02959132273747288</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00282809124449698</v>
+        <v>0.03819039576815961</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01905138597233715</v>
+        <v>0.03557266043784139</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01114285072446632</v>
+        <v>0.03130365724113846</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02187600918215904</v>
+        <v>0.03469950095316748</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01437082486345386</v>
+        <v>0.05150776600896428</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0191289032780104</v>
+        <v>0.05569078318360526</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01562431636823859</v>
+        <v>0.04421451311099422</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01602511038800546</v>
+        <v>0.02740472480103576</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02472918074607571</v>
+        <v>0.03855488439949577</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009570074633739458</v>
+        <v>0.03041245907277214</v>
       </c>
     </row>
     <row r="14">
@@ -956,37 +956,37 @@
         <v>1.520030008641161</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03631873957513911</v>
+        <v>0.03620755409372331</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01300742779493243</v>
+        <v>0.03550702288710752</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.04124351301638499</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01668144863947319</v>
+        <v>0.04519762104108822</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003986397540495301</v>
+        <v>0.04897939023596785</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005708286938896186</v>
+        <v>0.0317960664739644</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0233140675144371</v>
+        <v>0.04021600368445321</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005751479887261898</v>
+        <v>0.05624829097290889</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01854012836038631</v>
+        <v>0.04902980779379134</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0303823976485755</v>
+        <v>0.04109315891206015</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01405716577804839</v>
+        <v>0.04725735366161659</v>
       </c>
     </row>
     <row r="15">
@@ -994,37 +994,37 @@
         <v>1.574362217625047</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00732738427471504</v>
+        <v>0.01347374895101367</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01061051514696463</v>
+        <v>0.03741386066640514</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01907744130647256</v>
+        <v>0.0118719804975676</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03136995314440727</v>
+        <v>0.03475113591388006</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02278985124279907</v>
+        <v>0.04207695855475227</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04045922196321487</v>
+        <v>0.05193048271924009</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03243598504023974</v>
+        <v>0.04527821221262637</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02599225023013417</v>
+        <v>0.04606054584749986</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04802139684634153</v>
+        <v>0.04054276328891937</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04740067030222767</v>
+        <v>0.04217250779493091</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02324207221887666</v>
+        <v>0.03490451531968119</v>
       </c>
     </row>
     <row r="16">
@@ -1032,37 +1032,37 @@
         <v>1.673009501556595</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01611828999401827</v>
+        <v>0.00780132903305331</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.02323028376510538</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002161855763128136</v>
+        <v>0.0264993533944844</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03134056683356786</v>
+        <v>0.02164176090316509</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04210400574808094</v>
+        <v>0.02282298953233375</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05947181344786727</v>
+        <v>0.01940734682718162</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07585332386631874</v>
+        <v>0.0256116702208166</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07331412104309031</v>
+        <v>0.02352914529964076</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07584545326802265</v>
+        <v>0.04099167277558978</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1024444609453861</v>
+        <v>0.04868107544554419</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0979446773214233</v>
+        <v>0.04668504466046631</v>
       </c>
     </row>
     <row r="17">
@@ -1070,37 +1070,37 @@
         <v>1.841385220283113</v>
       </c>
       <c r="B17" t="n">
-        <v>0.001318811659792464</v>
+        <v>0.003173983113377071</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001668957335444336</v>
+        <v>0.004023933670886454</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006673624676927926</v>
+        <v>0.008772932343092196</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01939923123188281</v>
+        <v>0.025500157915335</v>
       </c>
       <c r="F17" t="n">
-        <v>0.007069360820220138</v>
+        <v>0.0356159143512248</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03633076982086771</v>
+        <v>0.01110707444229647</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04638422694616531</v>
+        <v>0.02403463558805856</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04790436883352212</v>
+        <v>0.02261787089720975</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05541379186010768</v>
+        <v>0.04638555554685014</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06381059349248688</v>
+        <v>0.03252408331951658</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06388368753374393</v>
+        <v>0.0420994752211955</v>
       </c>
     </row>
     <row r="18">
@@ -1108,37 +1108,37 @@
         <v>1.86036991139758</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01587073923548526</v>
+        <v>0.005330224377539882</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.0129918808650849</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.01040124369398061</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.009341788447112852</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001575858964547741</v>
+        <v>0.01284168026914027</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.02552580391811418</v>
       </c>
       <c r="H18" t="n">
-        <v>0.008791615150960927</v>
+        <v>0.02909089603905887</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.02615306592373232</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01115167225875254</v>
+        <v>0.03024905592144471</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.02286864220540396</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.02923791984522225</v>
       </c>
     </row>
     <row r="19">
@@ -1146,37 +1146,37 @@
         <v>1.878974844740942</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003098460341907502</v>
+        <v>0.004038597472163858</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0007699627265392601</v>
+        <v>0.007503873963634274</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004528269937702886</v>
+        <v>0.01741022018281401</v>
       </c>
       <c r="E19" t="n">
-        <v>0.008452372030887764</v>
+        <v>0.02700527232605988</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.01485432805520953</v>
       </c>
       <c r="G19" t="n">
-        <v>0.005264699906399876</v>
+        <v>0.02871337036348886</v>
       </c>
       <c r="H19" t="n">
-        <v>0.004710966532701049</v>
+        <v>0.01726749055827945</v>
       </c>
       <c r="I19" t="n">
-        <v>0.004953023339229081</v>
+        <v>0.03106358321630555</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.02873655126302185</v>
       </c>
       <c r="K19" t="n">
-        <v>0.008114685326122249</v>
+        <v>0.03203892015350063</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003663386196470143</v>
+        <v>0.03354364022561795</v>
       </c>
     </row>
     <row r="20">
@@ -1184,37 +1184,37 @@
         <v>1.915117804358885</v>
       </c>
       <c r="B20" t="n">
-        <v>0.003984320730470362</v>
+        <v>0.01121826465083123</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.01528992140272354</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006067692206551819</v>
+        <v>0.01604024393914077</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.00673723650888421</v>
       </c>
       <c r="F20" t="n">
-        <v>0.007389140475450215</v>
+        <v>0.002638036953034344</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01000353706542638</v>
+        <v>0.02391383886202357</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01051427227372131</v>
+        <v>0.02466058535573739</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01690174619172714</v>
+        <v>0.04119694917878325</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.03906142702073392</v>
       </c>
       <c r="K20" t="n">
-        <v>0.003794805218344335</v>
+        <v>0.02026650624506142</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002099858368352793</v>
+        <v>0.02323180083929971</v>
       </c>
     </row>
     <row r="21">
@@ -1222,37 +1222,37 @@
         <v>1.98357209814497</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01270563522479245</v>
+        <v>0.000501792259493966</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003836715996967252</v>
+        <v>0.008508366997887451</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.008786227045617595</v>
       </c>
       <c r="E21" t="n">
-        <v>0.009535907092226651</v>
+        <v>0.02242201325868847</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02488581696161322</v>
+        <v>0.01365212469488652</v>
       </c>
       <c r="G21" t="n">
-        <v>0.009457317705659237</v>
+        <v>0.01019179846664897</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01844368682330703</v>
+        <v>0.02844642489425273</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.01774349442984187</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01308580408171854</v>
+        <v>0.02533960567115401</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01402758350491629</v>
+        <v>0.02738229205361429</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01618416951230723</v>
+        <v>0.03355405930315973</v>
       </c>
     </row>
     <row r="22">
@@ -1260,37 +1260,37 @@
         <v>2.107859887685283</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00358798727246463</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007276883884962488</v>
+        <v>0.01153993317191423</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.02175494251148056</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002578311903006831</v>
+        <v>0.01485358244278199</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.01115664174828919</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.01322752307416685</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01253868462753583</v>
+        <v>0.01751817087207364</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01386005533150809</v>
+        <v>0.01871387192222113</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01859074194589679</v>
+        <v>0.01658020209065942</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02981616683689945</v>
+        <v>0.0350121245690011</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03808779253386982</v>
+        <v>0.01524930123028896</v>
       </c>
     </row>
     <row r="23">
@@ -1298,37 +1298,37 @@
         <v>2.320000000000002</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0004918795743275459</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01627187581987335</v>
+        <v>0.01140684857531264</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00563580273484623</v>
+        <v>0.01372705629530628</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01154584106669848</v>
+        <v>0.004921782392105664</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001403577333323234</v>
+        <v>0.003419161558883196</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002925010570130974</v>
+        <v>0.003588355119224031</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01073562487719096</v>
+        <v>0.01117230986846177</v>
       </c>
       <c r="I23" t="n">
-        <v>0.008778646648253376</v>
+        <v>0.007820380162051306</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.004404623902621289</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00324670703037442</v>
+        <v>0.0180360770674804</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001456551756309315</v>
+        <v>0.00120619740073882</v>
       </c>
     </row>
     <row r="24">
@@ -1336,13 +1336,13 @@
         <v>2.332020939981656</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01352547973508673</v>
+        <v>0.01242575689180718</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.00725997618493955</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1351,22 +1351,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.01417392825732768</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007090039201227634</v>
+        <v>0.0003351202689958763</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.00717319096704261</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.004343225639720575</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.01167178733211278</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.01614257032358796</v>
       </c>
     </row>
     <row r="25">
@@ -1377,34 +1377,34 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.007080152392841974</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002995797634261911</v>
+        <v>0.002500558094183931</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.0007405027041527686</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004943773082447538</v>
+        <v>0.0122319014302462</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.003491764567460314</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.004931675266948251</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.01344254893812138</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.006696765156935537</v>
       </c>
       <c r="K25" t="n">
-        <v>0.004456695733221193</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.01376723163139366</v>
       </c>
     </row>
     <row r="26">
@@ -1412,37 +1412,37 @@
         <v>2.367359959112064</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.01370081247352581</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.01500817779031487</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003650847264161927</v>
+        <v>0.02276712710111624</v>
       </c>
       <c r="F26" t="n">
-        <v>0.006952180792850218</v>
+        <v>0.00696549735472167</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002936815461396185</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001326001744714193</v>
+        <v>0.001165888158889284</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.01686865494943999</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.02147472977529283</v>
       </c>
     </row>
     <row r="27">
@@ -1450,37 +1450,37 @@
         <v>2.41289723474021</v>
       </c>
       <c r="B27" t="n">
-        <v>0.002067146207911862</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.006356549675994453</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.01392218823174588</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002365598848499983</v>
+        <v>0.007082303991667427</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.01174906937499547</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002294452493879289</v>
+        <v>0.01259621746167519</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0008293833690451801</v>
+        <v>0.003490829819584116</v>
       </c>
       <c r="I27" t="n">
-        <v>6.055097892257299e-05</v>
+        <v>0.00230634884290237</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01374602576707115</v>
+        <v>0.0138477984279329</v>
       </c>
       <c r="K27" t="n">
-        <v>0.002329475197965492</v>
+        <v>0.008801360271314205</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0121491033000998</v>
+        <v>0.01028232784748454</v>
       </c>
     </row>
     <row r="28">
@@ -1488,37 +1488,37 @@
         <v>2.499144240436987</v>
       </c>
       <c r="B28" t="n">
-        <v>0.002752879922075196</v>
+        <v>0.01167273197293793</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01247811063406985</v>
+        <v>0.003204931256931032</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00528981427940471</v>
+        <v>0.005375332307135348</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005455321369234619</v>
+        <v>0.003157060426631702</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01986407341001486</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01064792026018833</v>
+        <v>0.01269540476943491</v>
       </c>
       <c r="K28" t="n">
-        <v>0.008697160390816068</v>
+        <v>0.008185736491434869</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02062151512252236</v>
+        <v>0.009714231224374424</v>
       </c>
     </row>
     <row r="29">
@@ -1526,37 +1526,37 @@
         <v>2.655737042723731</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01268892731028217</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.007800551190833006</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002566789152434316</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01699913902291086</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.002830406818864832</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.005789496956247087</v>
+        <v>0.0102619217680394</v>
       </c>
       <c r="J29" t="n">
-        <v>0.00858411433327096</v>
+        <v>0.002460082377776106</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01139612037107987</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.00356222373905252</v>
       </c>
     </row>
     <row r="30">
@@ -1567,34 +1567,34 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.008092662327340109</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01816398996333881</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.01025719855065124</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003385656247145707</v>
+        <v>0.01167925342996191</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.00587265214914964</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01262511943219476</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.004516017457966303</v>
+        <v>0.004466333017579448</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.02323258020632797</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01241434888219726</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01037446580945697</v>
+        <v>0.001071306353188211</v>
       </c>
     </row>
     <row r="31">
@@ -1602,37 +1602,37 @@
         <v>2.930609121380968</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0006264371682589311</v>
+        <v>0.01248726896335266</v>
       </c>
       <c r="C31" t="n">
-        <v>0.004252567625244134</v>
+        <v>0.004806524843857626</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.008631390882020506</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001872578480459922</v>
+        <v>0.01725165768324737</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007692672934964874</v>
+        <v>0.004339736129038238</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01134035189120203</v>
+        <v>0.0057540451825131</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.008081020838844176</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.008780103320334848</v>
       </c>
       <c r="L31" t="n">
-        <v>0.004176793443527528</v>
+        <v>0.01008824082468507</v>
       </c>
     </row>
     <row r="32">
@@ -1640,13 +1640,13 @@
         <v>2.938162271078516</v>
       </c>
       <c r="B32" t="n">
-        <v>0.003695948678413299</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00810654820303427</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.00380136246222077</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.004157709025356464</v>
+        <v>0.002062817596371424</v>
       </c>
       <c r="H32" t="n">
-        <v>0.004809126737561891</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.008846102178976538</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01294558541154382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1678,7 +1678,7 @@
         <v>2.953153154402505</v>
       </c>
       <c r="B33" t="n">
-        <v>0.007771538972995833</v>
+        <v>0.00952733413389366</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1687,28 +1687,28 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.007264625862243914</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003238601552993005</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.006145920358416395</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00153083796785356</v>
+        <v>0.002969288339640279</v>
       </c>
       <c r="I33" t="n">
-        <v>0.005212155604354832</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.009265589913846132</v>
+        <v>0.006636784199253593</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.002567787672969186</v>
+        <v>0.009682276988962539</v>
       </c>
     </row>
     <row r="34">
@@ -1719,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002318781042615303</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.006537708073144308</v>
+        <v>0.009781394372703782</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0006292758901070148</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00220362041180869</v>
+        <v>0.005562208042248874</v>
       </c>
       <c r="I34" t="n">
-        <v>0.001795699032416137</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.006152134195041931</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003552941470633233</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.007643412096967079</v>
       </c>
     </row>
     <row r="35">
@@ -1757,31 +1757,31 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0003667640200796323</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00182425834038789</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01414199826433308</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00483712842382992</v>
+        <v>0.006537679648642129</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.004366932728622478</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.001705004885378294</v>
+        <v>0.00730163565006834</v>
       </c>
       <c r="K35" t="n">
-        <v>0.003673742153023943</v>
+        <v>0.01590688580246388</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -1792,37 +1792,37 @@
         <v>3.148724435250093</v>
       </c>
       <c r="B36" t="n">
-        <v>0.009352302947303699</v>
+        <v>0.001183591049826092</v>
       </c>
       <c r="C36" t="n">
-        <v>0.008932460422896894</v>
+        <v>0.001625529663211775</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.0001539464444708079</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001127905510695579</v>
+        <v>0.01127273201432169</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00208174545756932</v>
+        <v>0.0007322076055020974</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.01063623654881549</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003491231891371478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01046879208198016</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00219205946961513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1830,37 +1830,37 @@
         <v>3.34601900311319</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01187950566946458</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.006880640652312997</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.02014719417211834</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.006349623651991602</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001718469826882094</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.009923302401077262</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.004653769391673919</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0007733452775706965</v>
+        <v>0.003351483618445275</v>
       </c>
       <c r="K37" t="n">
-        <v>0.005711488605513065</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.001727859078987691</v>
       </c>
     </row>
     <row r="38">
@@ -1868,31 +1868,31 @@
         <v>3.682770440566225</v>
       </c>
       <c r="B38" t="n">
-        <v>0.001822420766297888</v>
+        <v>0.00576402193848418</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0002963749375604484</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01212189754859127</v>
+        <v>0.0072517266966841</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01917741665438328</v>
+        <v>0.003801238265027872</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.002314038399269651</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00485459213423825</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.006550873666530691</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01169396886204485</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -1909,34 +1909,34 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009240031131700284</v>
+        <v>0.005917667441146188</v>
       </c>
       <c r="D39" t="n">
-        <v>0.009155885711752458</v>
+        <v>0.002274733412132868</v>
       </c>
       <c r="E39" t="n">
-        <v>0.004060904766459757</v>
+        <v>0.0008170212484967015</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001038638542814005</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.006887174158836594</v>
+        <v>0.004559847867461293</v>
       </c>
       <c r="I39" t="n">
-        <v>0.009286443713164371</v>
+        <v>0.003457590943451555</v>
       </c>
       <c r="J39" t="n">
-        <v>0.003011291743600823</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00057397247726386</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.003751361849706437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1944,37 +1944,37 @@
         <v>3.6923361210418</v>
       </c>
       <c r="B40" t="n">
-        <v>0.007962063677190696</v>
+        <v>0.004538275886364206</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004425316385650069</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.0003176510772410239</v>
       </c>
       <c r="E40" t="n">
-        <v>0.009621790655959254</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00495361414898236</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.01014323446566632</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.01487249612316776</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.003886999189397658</v>
+        <v>0.003777607309024427</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.001247526647123419</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00613318707723432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1982,37 +1982,37 @@
         <v>3.701852493338749</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0006987510896165708</v>
+        <v>0.01210179588277494</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0005434594991788162</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01862977260800434</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.01801066696488958</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.003018750010840611</v>
       </c>
       <c r="G41" t="n">
-        <v>0.007430777877315963</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.005474955754070016</v>
       </c>
       <c r="J41" t="n">
-        <v>0.005102666275694624</v>
+        <v>0.004177429844169938</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.000826495951520245</v>
+        <v>0.0005689909099985946</v>
       </c>
     </row>
     <row r="42">
@@ -2020,37 +2020,37 @@
         <v>3.720739822795161</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01841891239442243</v>
+        <v>0.0007288490998996028</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.006945747416856296</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01066077991843882</v>
+        <v>0.00280233908162523</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.0007153255067256007</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00476003160367462</v>
+        <v>0.0102945196396969</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005170445948682358</v>
+        <v>0.004720211981872587</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01376109623604846</v>
+        <v>2.373620207478842e-05</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.002651655966110077</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.009455183853281835</v>
       </c>
       <c r="L42" t="n">
-        <v>0.003952727966289441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2058,37 +2058,37 @@
         <v>3.757949689481883</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.007458596252261702</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.005767082866564277</v>
+        <v>0.007688016294924413</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.005273697544389494</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0004959954332209151</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.001268686574170464</v>
+        <v>0.003822722523878262</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.003601165473709063</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.0003094929928178564</v>
       </c>
     </row>
     <row r="44">
@@ -2096,34 +2096,34 @@
         <v>3.83023560871777</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0009555572793789008</v>
+        <v>0.01410206282583545</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01217950444115096</v>
+        <v>0.01155816181350579</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01013753351678313</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.007929560143629463</v>
+        <v>0.004542654201871066</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00054929125466579</v>
+        <v>0.01245203392525442</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.00187793226948027</v>
+        <v>0.01189891991969563</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.01235272514852835</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2134,37 +2134,37 @@
         <v>3.96714419628994</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.003722980924179138</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003372720648620484</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.004274707476998921</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.003361648005748606</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01406940400304904</v>
+        <v>0.01486438056329919</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.02046151529379204</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.007266112536219484</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.006764544084689531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2175,16 +2175,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.001383506428151938</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002306920604985017</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.01396317805558445</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2193,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.002383294568881792</v>
+        <v>0.00183349319636521</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.000666066942785524</v>
       </c>
       <c r="L46" t="n">
-        <v>0.005024891346541127</v>
+        <v>0.0007997364114034982</v>
       </c>
     </row>
     <row r="47">
@@ -2210,37 +2210,37 @@
         <v>4.640000000000003</v>
       </c>
       <c r="B47" t="n">
-        <v>0.004380202707699287</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.003326971032842887</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.004269339210216119</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.006570046854705791</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01572146661239096</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01087315622014134</v>
+        <v>0.01473043004367403</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01373817610209463</v>
+        <v>0.01486092194938608</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.006528948950253723</v>
       </c>
       <c r="J47" t="n">
-        <v>0.001175314524488761</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.000870067223835701</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.001554736416251342</v>
+        <v>0.01001541059204256</v>
       </c>
     </row>
     <row r="48">
@@ -2248,37 +2248,37 @@
         <v>4.643018868776187</v>
       </c>
       <c r="B48" t="n">
-        <v>0.009478038024450167</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.003527394419743543</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.003659854731991355</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0002789901972986964</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0114994516866313</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.001097954579724695</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.00247191428871541</v>
+        <v>0.0002706416183092056</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.005592063191477393</v>
       </c>
       <c r="L48" t="n">
-        <v>0.001679328874135889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2286,37 +2286,37 @@
         <v>4.646033816940814</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.01992484403388103</v>
       </c>
       <c r="C49" t="n">
-        <v>0.002246752896009947</v>
+        <v>0.001526968888398322</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01380862537654866</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.005172956521127548</v>
+        <v>0.007589297233391876</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.01917828210135936</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01550072937094678</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.003577628267462761</v>
       </c>
       <c r="J49" t="n">
-        <v>0.006753390395182851</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.0003602497467656513</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.01046754313990363</v>
       </c>
     </row>
     <row r="50">
@@ -2327,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.005066660338926894</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.005303239851281871</v>
+        <v>0.001608210772540897</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2339,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.009780081210611016</v>
+        <v>0.01004714836551869</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.001782409144431134</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01416189815612083</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.009767052738846194</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -2362,34 +2362,34 @@
         <v>4.66404187996331</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.008198193881911543</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.003885507951657924</v>
       </c>
       <c r="D51" t="n">
-        <v>0.005946725045994218</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0007547852213011866</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.008597830276316344</v>
+        <v>0.003667098128990834</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.01525772041903953</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002805263625710456</v>
+        <v>0.000210442022497872</v>
       </c>
       <c r="I51" t="n">
-        <v>0.004456522986225975</v>
+        <v>0.005684995166128514</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.009067907082042925</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>0.002940690337195717</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -2400,37 +2400,37 @@
         <v>4.687838423921743</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>0.001753076687787193</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.006612955954099858</v>
+        <v>0.001990970713283936</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01003650317895969</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.006406060757263412</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.01318585351250636</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>0.006002141518752246</v>
       </c>
       <c r="I52" t="n">
-        <v>0.006744692822472845</v>
+        <v>0.004643278546159838</v>
       </c>
       <c r="J52" t="n">
-        <v>0.001655981342978484</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.006103454617640655</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0149521760876886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2438,31 +2438,31 @@
         <v>4.734719918224127</v>
       </c>
       <c r="B53" t="n">
-        <v>0.009007802525328006</v>
+        <v>0.002452762666920382</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001496828940550361</v>
+        <v>0.004936067329170832</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0008483134446631873</v>
+        <v>0.006585368236109984</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002047291493820012</v>
+        <v>0.006039287913587784</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.00446401515647093</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01102122494562065</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>0.003013705310504369</v>
       </c>
       <c r="I53" t="n">
-        <v>0.003976398254336629</v>
+        <v>0.004138561029733873</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>0.01158138346723089</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2476,37 +2476,37 @@
         <v>4.825794469480421</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>0.002407540715307963</v>
       </c>
       <c r="C54" t="n">
-        <v>0.002883133127428782</v>
+        <v>0.003327682788579354</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.003027510527510912</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.01816670960926287</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>0.005290364534650909</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.009171695674420072</v>
+        <v>0.0007189047043038193</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>0.01007600199832123</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002631841956394176</v>
+        <v>0.005134235914003154</v>
       </c>
     </row>
     <row r="55">
@@ -2517,34 +2517,34 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.00354862012307266</v>
       </c>
       <c r="D55" t="n">
-        <v>0.005356564782854333</v>
+        <v>0.00187915798039697</v>
       </c>
       <c r="E55" t="n">
-        <v>0.004633360676420263</v>
+        <v>0.0110335211696491</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01281654714547991</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.006779457048310708</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.007107608843753241</v>
+        <v>0.003001290538749709</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0002386505134341982</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.00735717718133398</v>
       </c>
     </row>
     <row r="56">
@@ -2555,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.004501365512060864</v>
       </c>
       <c r="D56" t="n">
-        <v>0.005571025822457228</v>
+        <v>0.00916348002530915</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004424155058564887</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.004178596441910937</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2579,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.01002936612481216</v>
+        <v>0.01796646225446156</v>
       </c>
       <c r="L56" t="n">
-        <v>0.003395687623738896</v>
+        <v>0.01541294730220775</v>
       </c>
     </row>
     <row r="57">
@@ -2590,37 +2590,37 @@
         <v>5.846033671512215</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>0.002948040491424413</v>
       </c>
       <c r="C57" t="n">
-        <v>0.004725092928109955</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.004260285628800741</v>
+        <v>0.01276692063434784</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002978999135871001</v>
+        <v>0.01082186937537552</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004909451163388186</v>
+        <v>0.00407644486721066</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.001160882518517322</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.02025940186252679</v>
       </c>
       <c r="I57" t="n">
-        <v>0.002162279904972855</v>
+        <v>0.005691424175485797</v>
       </c>
       <c r="J57" t="n">
-        <v>0.005670182336077406</v>
+        <v>0.0005879847777475293</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>0.002874626615003536</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.004512446533600298</v>
       </c>
     </row>
     <row r="58">
@@ -2628,16 +2628,16 @@
         <v>5.847936058132506</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.02116079285761954</v>
       </c>
       <c r="C58" t="n">
-        <v>0.003150031924945522</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.009275332403016541</v>
+        <v>0.00201530145384647</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01048019481664766</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01539428639715495</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.00556343712704311</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>0.01110510620815047</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -2669,34 +2669,34 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.01297588182693893</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01194617513711153</v>
+        <v>0.0062631814663689</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.00980381087527884</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.01982321707576186</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.006588265630270903</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>0.01457371196224877</v>
       </c>
       <c r="K59" t="n">
-        <v>0.001025801822826743</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>0.007998766821893067</v>
       </c>
     </row>
     <row r="60">
@@ -2704,31 +2704,31 @@
         <v>5.853635804487155</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01334043998749416</v>
+        <v>0.0001795547869051054</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0082870425886452</v>
+        <v>0.005353731271651866</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>0.002959453117875498</v>
       </c>
       <c r="F60" t="n">
-        <v>0.001475386962598908</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.002474247034732885</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.002584505188114796</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.006207711937684737</v>
+        <v>0.009186264435787168</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -2742,34 +2742,34 @@
         <v>5.861218242761934</v>
       </c>
       <c r="B61" t="n">
-        <v>0.001605484247467154</v>
+        <v>0.01177792901982582</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004971981293049326</v>
+        <v>5.606076055456575e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.004424094454072959</v>
+        <v>0.003233462999409767</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>0.01193969337633352</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0009697232524267731</v>
+        <v>0.001904564431391622</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.004032599369416987</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>0.005934328419956748</v>
       </c>
       <c r="K61" t="n">
-        <v>0.00300928502842877</v>
+        <v>0.01392716594620638</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -2780,37 +2780,37 @@
         <v>5.876324542157032</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0004235576855808121</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.01206393305754644</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.008551981121381674</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01198841272445621</v>
+        <v>0.002844136924979156</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.006573817422164242</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.00268308835472443</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0006859513804528082</v>
+        <v>0.006198500947058381</v>
       </c>
       <c r="K62" t="n">
-        <v>0.001654400920538545</v>
+        <v>0.0077555441068642</v>
       </c>
       <c r="L62" t="n">
-        <v>0.009519274042568698</v>
+        <v>0.02229417156788508</v>
       </c>
     </row>
     <row r="63">
@@ -2818,10 +2818,10 @@
         <v>5.906306308805011</v>
       </c>
       <c r="B63" t="n">
-        <v>0.008909411878682131</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.01178049740116015</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -2830,25 +2830,25 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.006054944287823914</v>
+        <v>0.003547509112470106</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>0.007438933824285018</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.01209333836662061</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01010871057280932</v>
+        <v>0.0005667165187247708</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.004711349617394471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2856,37 +2856,37 @@
         <v>5.96537329032711</v>
       </c>
       <c r="B64" t="n">
-        <v>0.002992788890773359</v>
+        <v>0.004614679930668012</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.004348702129374938</v>
       </c>
       <c r="D64" t="n">
-        <v>0.002643748574214866</v>
+        <v>0.002489185115624906</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.0003159165210333483</v>
       </c>
       <c r="F64" t="n">
-        <v>0.009138658738136234</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.008847919064540279</v>
+        <v>0.0109036676981434</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.004565576162318838</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>0.0006648939891031714</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>0.01138007534373537</v>
       </c>
       <c r="K64" t="n">
-        <v>0.002646629210146928</v>
+        <v>0.0008915621399898904</v>
       </c>
       <c r="L64" t="n">
-        <v>0.01490222851801441</v>
+        <v>0.002712579821681088</v>
       </c>
     </row>
     <row r="65">
@@ -2894,37 +2894,37 @@
         <v>6.080120034564644</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01229825563799777</v>
+        <v>0.02260967645976187</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01219678192104925</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0001301339211731352</v>
+        <v>0.005470504450313664</v>
       </c>
       <c r="E65" t="n">
-        <v>0.01258624314416657</v>
+        <v>0.005368430453702238</v>
       </c>
       <c r="F65" t="n">
-        <v>0.008255947971976572</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.004669628732956855</v>
       </c>
       <c r="H65" t="n">
-        <v>0.006215419919051012</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.003822956091244072</v>
+        <v>0.002662094277217007</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.009686549084844938</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.008041649988929488</v>
       </c>
     </row>
     <row r="66">
@@ -2932,37 +2932,37 @@
         <v>6.297448870500187</v>
       </c>
       <c r="B66" t="n">
-        <v>0.006726989452228571</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.002114475575153606</v>
+        <v>0.02141083258356819</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.007405684733625962</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01206128399797636</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.006267576255904076</v>
+        <v>0.005737542376563017</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.0007083333862048122</v>
       </c>
       <c r="J66" t="n">
-        <v>0.004223512781905768</v>
+        <v>0.01344995106984314</v>
       </c>
       <c r="K66" t="n">
-        <v>0.02311934230530902</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.002368382147236613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2970,25 +2970,25 @@
         <v>6.692038006226379</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0003897245279398558</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0001539072377904264</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.009818415309452983</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00157995972349107</v>
+        <v>0.007054887848993086</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.002335217092281168</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.003669961593013786</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0003780491349468136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3008,10 +3008,10 @@
         <v>7.36554088113245</v>
       </c>
       <c r="B68" t="n">
-        <v>0.001236593659827343</v>
+        <v>0.001348924263089784</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01011445402134074</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003456849363218255</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.001399738258261201</v>
+        <v>0.0003291491754568792</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>0.009307347723576524</v>
       </c>
       <c r="L68" t="n">
-        <v>0.002092111688697826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3049,34 +3049,34 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.003991948959772648</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01415930498629355</v>
+        <v>0.01222961862833429</v>
       </c>
       <c r="F69" t="n">
-        <v>0.005787018241968482</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.002482464176162144</v>
+        <v>0.002726986914465311</v>
       </c>
       <c r="H69" t="n">
-        <v>0.001321124465228368</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.006015577722070532</v>
+        <v>0.001511554275614243</v>
       </c>
       <c r="J69" t="n">
-        <v>0.001515178590690005</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>0.01170778309845169</v>
       </c>
       <c r="L69" t="n">
-        <v>0.006442202461202837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3084,22 +3084,22 @@
         <v>7.367937738080394</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005774125092459959</v>
+        <v>2.093767584745397e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>0.003841395097674607</v>
+        <v>0.003253811851087025</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0002367520678248119</v>
+        <v>0.002432541498997262</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002977870570541061</v>
+        <v>0.01008639390730128</v>
       </c>
       <c r="F70" t="n">
-        <v>0.006077424126519458</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.00555693906073636</v>
+        <v>0.001615583933448246</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.001760782472455034</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>0.0003009799966312482</v>
       </c>
       <c r="L70" t="n">
-        <v>0.005200253307115661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3122,37 +3122,37 @@
         <v>7.370333036603518</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003407544154896904</v>
+        <v>0.0005423142074930261</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0009718776562315464</v>
+        <v>0.008140663697752602</v>
       </c>
       <c r="D71" t="n">
-        <v>0.003215745349867473</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002939170840365541</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.007354764125388541</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.006153320817239424</v>
       </c>
       <c r="J71" t="n">
-        <v>0.003947525779771109</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.003344927943295671</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.004518683125712775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3160,19 +3160,19 @@
         <v>7.375118968491677</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.0006603435225441516</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.005185691090055253</v>
+        <v>0.004397004684867149</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>0.004191889419973867</v>
       </c>
       <c r="F72" t="n">
-        <v>0.005341199159207684</v>
+        <v>0.001258818347581005</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>0.01100766237802646</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0004308148330991806</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.003309690960524182</v>
       </c>
     </row>
     <row r="73">
@@ -3198,10 +3198,10 @@
         <v>7.3846722420836</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0007763753852200777</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01554597600576861</v>
+        <v>0.001368201662134037</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3210,25 +3210,25 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.005655454897878738</v>
+        <v>0.008561452395833941</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.005230172899804583</v>
       </c>
       <c r="H73" t="n">
-        <v>0.005617204024565168</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.004919914020430929</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.007309671072923648</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>0.003556236668685385</v>
       </c>
       <c r="L73" t="n">
-        <v>0.006984985874883107</v>
+        <v>0.009696312008854733</v>
       </c>
     </row>
     <row r="74">
@@ -3236,37 +3236,37 @@
         <v>7.403704986677496</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>0.005904289693645753</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01570340638136135</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003683797594384223</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.005352256982730701</v>
+        <v>0.01001301027138442</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01130293284716097</v>
+        <v>0.00307712173088844</v>
       </c>
       <c r="G74" t="n">
-        <v>0.002826456155028964</v>
+        <v>0.00332984903001052</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01871108531273942</v>
+        <v>0.0001098030203633153</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0.002311011535329129</v>
+        <v>0.009315099294901862</v>
       </c>
       <c r="L74" t="n">
-        <v>0.006579059127403804</v>
+        <v>0.01145108595201606</v>
       </c>
     </row>
     <row r="75">
@@ -3280,31 +3280,31 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>0.001661451296175107</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003052696609900386</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004427421191598522</v>
+        <v>0.01087356971117872</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>0.005225174198100565</v>
       </c>
       <c r="I75" t="n">
-        <v>0.002321607104939445</v>
+        <v>0.002996557927809039</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>0.002993176321571659</v>
       </c>
       <c r="K75" t="n">
-        <v>0.03150898507817438</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.003687205079794063</v>
+        <v>0.00499167080922754</v>
       </c>
     </row>
     <row r="76">
@@ -3312,16 +3312,16 @@
         <v>7.515899378963765</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>0.001363809165623491</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.008234793077601955</v>
+        <v>0.01086385680302821</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>0.001770035845200459</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3330,19 +3330,19 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.002128826351079387</v>
+        <v>0.01861629424791267</v>
       </c>
       <c r="I76" t="n">
-        <v>0.000873377506449182</v>
+        <v>0.004511205332574852</v>
       </c>
       <c r="J76" t="n">
-        <v>0.001316733868442384</v>
+        <v>0.003961677301225429</v>
       </c>
       <c r="K76" t="n">
-        <v>0.002223643599922895</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.006248318604959752</v>
       </c>
     </row>
     <row r="77">
@@ -3350,13 +3350,13 @@
         <v>7.660471217435539</v>
       </c>
       <c r="B77" t="n">
-        <v>0.00475200243478287</v>
+        <v>0.003584416813577056</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0118245298247602</v>
+        <v>0.009488428256017764</v>
       </c>
       <c r="D77" t="n">
-        <v>0.006277017273157434</v>
+        <v>0.008954870379176964</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3374,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.002377454460191031</v>
+        <v>0.003115088850656431</v>
       </c>
       <c r="K77" t="n">
-        <v>0.001953733276995877</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -3388,28 +3388,28 @@
         <v>7.934288392579878</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>0.01400271048261519</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01142496053572028</v>
+        <v>0.01187120144141877</v>
       </c>
       <c r="E78" t="n">
-        <v>0.01307705805231315</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0153966274742494</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001791556068400919</v>
+        <v>0.004288282115878859</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>0.0007432130492644477</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>0.01519367406697604</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3426,37 +3426,37 @@
         <v>8.431439550741132</v>
       </c>
       <c r="B79" t="n">
-        <v>0.006947056817302487</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>0.01598668656831287</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0009073678182485632</v>
+        <v>0.002999002006724945</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>0.004454119190968101</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01151356875677425</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>0.009841523691278827</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01276849857795384</v>
+        <v>0.00282296052567479</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.009385079338193493</v>
       </c>
     </row>
     <row r="80">
@@ -3464,7 +3464,7 @@
         <v>9.280000000000006</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01651785665738817</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -3473,28 +3473,28 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.006040350088871005</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>0.006976911660365827</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.001703083302944356</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.003616714263107198</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0005929221150185821</v>
+        <v>0.003047894068902734</v>
       </c>
       <c r="K80" t="n">
-        <v>0.003521918520592636</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01103592432950293</v>
+        <v>0.003115407505194472</v>
       </c>
     </row>
     <row r="81">
@@ -3502,25 +3502,25 @@
         <v>9.280755146882662</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>0.0108296732738047</v>
       </c>
       <c r="C81" t="n">
-        <v>0.002994204369462796</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.005210757016426108</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004743967911112097</v>
+        <v>0.002429196563106519</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004617237607400803</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.005473953696527393</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3529,10 +3529,10 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.004336938901500775</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.00335160753705724</v>
+        <v>0.00978001057518151</v>
       </c>
     </row>
     <row r="82">
@@ -3540,37 +3540,37 @@
         <v>9.281510170897292</v>
       </c>
       <c r="B82" t="n">
-        <v>0.009895278195146512</v>
+        <v>0.007458802252108838</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01015756834767706</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.01076759066400653</v>
+        <v>0.009514102307005199</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.002360285181181621</v>
+        <v>0.001177979237087692</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01247541514043682</v>
+        <v>0.008900182322647344</v>
       </c>
       <c r="I82" t="n">
-        <v>0.01681178135620922</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.004240533003251464</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.004675132801167822</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.00801468515651348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3578,37 +3578,37 @@
         <v>9.283019850522306</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01328853089832204</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>0.00492228968499177</v>
       </c>
       <c r="D83" t="n">
-        <v>0.006305519498618482</v>
+        <v>0.0014509021264374</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0006549538552686264</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.006038995844520052</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0180427019682568</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.001151618618362308</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>6.775416621645332e-05</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.00726922249103923</v>
       </c>
     </row>
     <row r="84">
@@ -3616,37 +3616,37 @@
         <v>9.286037737552373</v>
       </c>
       <c r="B84" t="n">
-        <v>0.004173143526968849</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>0.001319510391413903</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>0.00335333460373815</v>
       </c>
       <c r="E84" t="n">
-        <v>0.00888371331233773</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>0.01369738715243666</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.02639423469738147</v>
       </c>
       <c r="H84" t="n">
-        <v>0.003904606712735819</v>
+        <v>0.009372723709218649</v>
       </c>
       <c r="I84" t="n">
-        <v>0.004929544592883566</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.005120719826724335</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.004001745898347119</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.001369086035826124</v>
       </c>
     </row>
     <row r="85">
@@ -3654,37 +3654,37 @@
         <v>9.292067633881627</v>
       </c>
       <c r="B85" t="n">
-        <v>0.001757504353538736</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01733096810229956</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.006279897442608239</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.001087376910816942</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>0.00847098436961961</v>
       </c>
       <c r="I85" t="n">
-        <v>0.009693816192579471</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>0.002808579490541569</v>
       </c>
       <c r="K85" t="n">
-        <v>0.001653572786524623</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.001733542694755946</v>
+        <v>0.001447359853269179</v>
       </c>
     </row>
     <row r="86">
@@ -3692,16 +3692,16 @@
         <v>9.304104004375496</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>0.009179643515247134</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.005308875763059089</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>0.004410091211951183</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3713,16 +3713,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.003808393400841261</v>
+        <v>0.006773880442478329</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.004886816620433044</v>
       </c>
       <c r="K86" t="n">
-        <v>0.007699007723001353</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.005483042928417378</v>
+        <v>0.005493264101876187</v>
       </c>
     </row>
     <row r="87">
@@ -3733,34 +3733,34 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.001933450583084732</v>
+        <v>0.004828394698369218</v>
       </c>
       <c r="D87" t="n">
-        <v>0.008543775655836423</v>
+        <v>0.008034100191176279</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01199968972856214</v>
+        <v>0.01011276663987767</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.01461957297258646</v>
       </c>
       <c r="H87" t="n">
-        <v>0.008691550185407288</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.001439577813142181</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>0.0142213285060551</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.00383218239461571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3768,10 +3768,10 @@
         <v>9.375676847843486</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>0.01166764858907046</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01349039323515904</v>
+        <v>0.0009739202420724754</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -3780,25 +3780,25 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>0.0002884349977255649</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.004939382276796822</v>
       </c>
       <c r="H88" t="n">
-        <v>0.001397509008959846</v>
+        <v>0.0118740030406397</v>
       </c>
       <c r="I88" t="n">
-        <v>0.01462766311456825</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.002316866746846757</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>0.003255733078159514</v>
       </c>
       <c r="L88" t="n">
-        <v>0.00138897606728746</v>
+        <v>0.00141323951618871</v>
       </c>
     </row>
     <row r="89">
@@ -3812,28 +3812,28 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01053208349282125</v>
+        <v>0.0002441909608922648</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>0.008152329770881886</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>0.002250442735508159</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01515186702415801</v>
+        <v>0.006140983008479642</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.01664237620633013</v>
+        <v>0.004740455485506388</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01076715911483117</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0.005050735359533717</v>
+        <v>0.0009430430810458741</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -3844,37 +3844,37 @@
         <v>9.651588938960842</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.0004782340714384142</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01194565565123524</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.004414772600044556</v>
+        <v>0.001383535148871872</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002762786461121064</v>
+        <v>0.005677194416301107</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.001163859436288257</v>
+        <v>0.008186955570923336</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0004175962760285562</v>
+        <v>0.001870247574394849</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.00858070347284224</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>0.003834558133893576</v>
       </c>
     </row>
     <row r="91">
@@ -3882,7 +3882,7 @@
         <v>9.996576961747945</v>
       </c>
       <c r="B91" t="n">
-        <v>0.005394122770967948</v>
+        <v>0.001456094978662846</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -3891,28 +3891,28 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>0.0008626246763766514</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>0.004359007911339183</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01633743926602022</v>
+        <v>0.004514283889736094</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.001896158730287409</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.004789810282621384</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>0.006039039286390845</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>0.0003998031053297843</v>
       </c>
     </row>
     <row r="92">
@@ -3920,31 +3920,31 @@
         <v>10.62294817089493</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>0.0006040629428792263</v>
       </c>
       <c r="C92" t="n">
-        <v>0.00404866868278233</v>
+        <v>0.005580172823988005</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01507494447675186</v>
+        <v>0.006018785880478008</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>0.004493380791750479</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>0.01095677901104878</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.00483778732648892</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.004464042843872395</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0005164084339974307</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01165576795062058</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -3958,31 +3958,31 @@
         <v>11.69206734302443</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.00412820990516991</v>
       </c>
       <c r="C93" t="n">
-        <v>0.00212148533132029</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.01026232063286455</v>
+        <v>0.00647845234007679</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>0.003348197219749271</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.005448933894592702</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>0.01181710889306628</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01282351173288089</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
